--- a/results/turkExpOct15.xlsx
+++ b/results/turkExpOct15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1560" windowWidth="18915" windowHeight="5550"/>
+    <workbookView xWindow="1320" yWindow="1560" windowWidth="18915" windowHeight="5550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allDataOct15" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">allDataOct15!$A$1:$D$2398</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">correct!$A$1:$I$172</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="71" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7914" uniqueCount="565">
   <si>
     <t>53f29622</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>"B because it shows the player with the ghosts."</t>
+  </si>
+  <si>
+    <t>comparisonType</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4671,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5028,7 +5031,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D2398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
@@ -38570,7 +38573,7 @@
   <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45458,15 +45461,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>520</v>
       </c>
@@ -45491,8 +45494,11 @@
       <c r="H1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -45518,8 +45524,12 @@
         <f>IF(D2="max",8-F2,F2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>IF(D2="max",IF(E2="random","vsRand","vsFirst"),IF(D2="random","vsRand","vsFirst"))</f>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -45545,8 +45555,12 @@
         <f t="shared" ref="H3:H66" si="0">IF(D3="max",8-F3,F3)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="1">IF(D3="max",IF(E3="random","vsRand","vsFirst"),IF(D3="random","vsRand","vsFirst"))</f>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -45572,8 +45586,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -45599,8 +45617,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -45626,8 +45648,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -45653,8 +45679,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -45680,8 +45710,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -45707,8 +45741,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -45734,8 +45772,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -45761,8 +45803,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -45788,8 +45834,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -45815,8 +45865,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -45842,8 +45896,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -45869,8 +45927,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -45896,8 +45958,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -45923,8 +45989,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -45950,8 +46020,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -45977,8 +46051,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -46004,8 +46082,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -46031,8 +46113,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -46058,8 +46144,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -46085,8 +46175,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -46112,8 +46206,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>263</v>
       </c>
@@ -46139,8 +46237,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -46166,8 +46268,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>263</v>
       </c>
@@ -46193,8 +46299,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -46220,8 +46330,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -46247,8 +46361,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -46274,8 +46392,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>265</v>
       </c>
@@ -46301,8 +46423,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -46328,8 +46454,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -46355,8 +46485,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -46382,8 +46516,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -46409,8 +46547,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -46436,8 +46578,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -46463,8 +46609,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>324</v>
       </c>
@@ -46490,8 +46640,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -46517,8 +46671,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>252</v>
       </c>
@@ -46544,8 +46702,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>324</v>
       </c>
@@ -46571,8 +46733,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>270</v>
       </c>
@@ -46598,8 +46764,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>324</v>
       </c>
@@ -46625,8 +46795,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -46652,8 +46826,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>270</v>
       </c>
@@ -46679,8 +46857,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>270</v>
       </c>
@@ -46706,8 +46888,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -46733,8 +46919,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>270</v>
       </c>
@@ -46760,8 +46950,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -46787,8 +46981,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>363</v>
       </c>
@@ -46814,8 +47012,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>363</v>
       </c>
@@ -46841,8 +47043,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>363</v>
       </c>
@@ -46868,8 +47074,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>363</v>
       </c>
@@ -46895,8 +47105,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>287</v>
       </c>
@@ -46922,8 +47136,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -46949,8 +47167,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>287</v>
       </c>
@@ -46976,8 +47198,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>287</v>
       </c>
@@ -47003,8 +47229,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>437</v>
       </c>
@@ -47030,8 +47260,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>418</v>
       </c>
@@ -47057,8 +47291,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>437</v>
       </c>
@@ -47084,8 +47322,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>418</v>
       </c>
@@ -47111,8 +47353,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -47138,8 +47384,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>437</v>
       </c>
@@ -47165,8 +47415,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -47192,8 +47446,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>437</v>
       </c>
@@ -47219,8 +47477,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>418</v>
       </c>
@@ -47246,8 +47508,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>418</v>
       </c>
@@ -47270,11 +47536,15 @@
         <v>1508090729971</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H81" si="1">IF(D67="max",8-F67,F67)</f>
+        <f t="shared" ref="H67:H81" si="2">IF(D67="max",8-F67,F67)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I81" si="3">IF(D67="max",IF(E67="random","vsRand","vsFirst"),IF(D67="random","vsRand","vsFirst"))</f>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>365</v>
       </c>
@@ -47297,11 +47567,15 @@
         <v>1508090742128</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>365</v>
       </c>
@@ -47324,11 +47598,15 @@
         <v>1508090773872</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>424</v>
       </c>
@@ -47351,11 +47629,15 @@
         <v>1508090837418</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>424</v>
       </c>
@@ -47378,11 +47660,15 @@
         <v>1508090896132</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>424</v>
       </c>
@@ -47405,11 +47691,15 @@
         <v>1508090949227</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>424</v>
       </c>
@@ -47432,11 +47722,15 @@
         <v>1508091005406</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>506</v>
       </c>
@@ -47459,11 +47753,15 @@
         <v>1508092142957</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>506</v>
       </c>
@@ -47486,11 +47784,15 @@
         <v>1508092195077</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>506</v>
       </c>
@@ -47513,11 +47815,15 @@
         <v>1508092243517</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>506</v>
       </c>
@@ -47540,11 +47846,15 @@
         <v>1508092296942</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>545</v>
       </c>
@@ -47567,11 +47877,15 @@
         <v>1508090971235</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>545</v>
       </c>
@@ -47594,11 +47908,15 @@
         <v>1508091050950</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>545</v>
       </c>
@@ -47621,11 +47939,15 @@
         <v>1508091130803</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="str">
+        <f t="shared" si="3"/>
+        <v>vsRand</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>545</v>
       </c>
@@ -47648,8 +47970,12 @@
         <v>1508091193385</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="3"/>
+        <v>vsFirst</v>
       </c>
     </row>
   </sheetData>
@@ -47686,7 +48012,7 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <f>B2/100</f>
+        <f t="shared" ref="C2:C20" si="0">B2/100</f>
         <v>0.4</v>
       </c>
     </row>
@@ -47698,7 +48024,7 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <f>B3/100</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -47710,7 +48036,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <f>B4/100</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -47722,7 +48048,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <f>B5/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47734,7 +48060,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <f>B6/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47746,7 +48072,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <f>B7/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47758,7 +48084,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <f>B8/100</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -47770,7 +48096,7 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <f>B9/100</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -47782,7 +48108,7 @@
         <v>70</v>
       </c>
       <c r="C10">
-        <f>B10/100</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
@@ -47794,7 +48120,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <f>B11/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47806,7 +48132,7 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <f>B12/100</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -47818,7 +48144,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <f>B13/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47830,7 +48156,7 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <f>B14/100</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -47842,7 +48168,7 @@
         <v>80</v>
       </c>
       <c r="C15">
-        <f>B15/100</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
@@ -47854,7 +48180,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <f>B16/100</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -47866,7 +48192,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <f>B17/100</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -47878,7 +48204,7 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <f>B18/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47890,7 +48216,7 @@
         <v>60</v>
       </c>
       <c r="C19">
-        <f>B19/100</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
@@ -47902,7 +48228,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <f>B20/100</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -47916,15 +48242,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>520</v>
       </c>
@@ -47949,8 +48275,17 @@
       <c r="H1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -47975,8 +48310,20 @@
       <c r="H2">
         <v>1508087498479</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>IF(D2&gt;E2,E2,D2)</f>
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <f>IF(D2&gt;E2,D2,E2)</f>
+        <v>400</v>
+      </c>
+      <c r="K2">
+        <f>IF(I2=200,IF(J2=400,1,3),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -48001,8 +48348,20 @@
       <c r="H3">
         <v>1508087549326</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">IF(D3&gt;E3,E3,D3)</f>
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">IF(D3&gt;E3,D3,E3)</f>
+        <v>2000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="2">IF(I3=200,IF(J3=400,1,3),2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -48027,8 +48386,20 @@
       <c r="H4">
         <v>1508087596369</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -48053,8 +48424,20 @@
       <c r="H5">
         <v>1508087644963</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -48079,8 +48462,20 @@
       <c r="H6">
         <v>1508087662614</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -48105,8 +48500,20 @@
       <c r="H7">
         <v>1508087698563</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -48131,8 +48538,20 @@
       <c r="H8">
         <v>1508087722131</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -48157,8 +48576,20 @@
       <c r="H9">
         <v>1508087740613</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -48183,8 +48614,20 @@
       <c r="H10">
         <v>1508087770231</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -48209,8 +48652,20 @@
       <c r="H11">
         <v>1508087779787</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -48235,8 +48690,20 @@
       <c r="H12">
         <v>1508087782102</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -48261,8 +48728,20 @@
       <c r="H13">
         <v>1508087793644</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -48287,8 +48766,20 @@
       <c r="H14">
         <v>1508087825716</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -48313,8 +48804,20 @@
       <c r="H15">
         <v>1508087840472</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -48339,8 +48842,20 @@
       <c r="H16">
         <v>1508087852222</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -48365,8 +48880,20 @@
       <c r="H17">
         <v>1508087855873</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -48391,8 +48918,20 @@
       <c r="H18">
         <v>1508087875557</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -48417,8 +48956,20 @@
       <c r="H19">
         <v>1508087896285</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -48443,8 +48994,20 @@
       <c r="H20">
         <v>1508087903661</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -48469,8 +49032,20 @@
       <c r="H21">
         <v>1508087920155</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -48495,8 +49070,20 @@
       <c r="H22">
         <v>1508087927141</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -48521,8 +49108,20 @@
       <c r="H23">
         <v>1508087934589</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -48547,8 +49146,20 @@
       <c r="H24">
         <v>1508087963520</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -48573,8 +49184,20 @@
       <c r="H25">
         <v>1508087977825</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -48599,8 +49222,20 @@
       <c r="H26">
         <v>1508087995456</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -48625,8 +49260,20 @@
       <c r="H27">
         <v>1508088001435</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -48651,8 +49298,20 @@
       <c r="H28">
         <v>1508088007427</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -48677,8 +49336,20 @@
       <c r="H29">
         <v>1508088045882</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -48703,8 +49374,20 @@
       <c r="H30">
         <v>1508088061921</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -48729,8 +49412,20 @@
       <c r="H31">
         <v>1508088064389</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -48755,8 +49450,20 @@
       <c r="H32">
         <v>1508088074313</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -48781,8 +49488,20 @@
       <c r="H33">
         <v>1508088100837</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -48807,8 +49526,20 @@
       <c r="H34">
         <v>1508088118466</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -48833,8 +49564,20 @@
       <c r="H35">
         <v>1508088131658</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -48859,8 +49602,20 @@
       <c r="H36">
         <v>1508088145677</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -48885,8 +49640,20 @@
       <c r="H37">
         <v>1508088154856</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -48911,8 +49678,20 @@
       <c r="H38">
         <v>1508088184638</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -48937,8 +49716,20 @@
       <c r="H39">
         <v>1508088201526</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -48963,8 +49754,20 @@
       <c r="H40">
         <v>1508088206075</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -48989,8 +49792,20 @@
       <c r="H41">
         <v>1508088250949</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -49015,8 +49830,20 @@
       <c r="H42">
         <v>1508088258224</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -49041,8 +49868,20 @@
       <c r="H43">
         <v>1508088296038</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -49067,8 +49906,20 @@
       <c r="H44">
         <v>1508088302415</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -49093,8 +49944,20 @@
       <c r="H45">
         <v>1508088365928</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -49119,8 +49982,20 @@
       <c r="H46">
         <v>1508088366612</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -49145,8 +50020,20 @@
       <c r="H47">
         <v>1508088381691</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -49171,8 +50058,20 @@
       <c r="H48">
         <v>1508088579518</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -49197,8 +50096,20 @@
       <c r="H49">
         <v>1508088653089</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -49223,8 +50134,20 @@
       <c r="H50">
         <v>1508088694073</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -49249,8 +50172,20 @@
       <c r="H51">
         <v>1508088749045</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>265</v>
       </c>
@@ -49275,8 +50210,20 @@
       <c r="H52">
         <v>1508088834832</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -49301,8 +50248,20 @@
       <c r="H53">
         <v>1508088828264</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>263</v>
       </c>
@@ -49327,8 +50286,20 @@
       <c r="H54">
         <v>1508088822887</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -49353,8 +50324,20 @@
       <c r="H55">
         <v>1508088843802</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>252</v>
       </c>
@@ -49379,8 +50362,20 @@
       <c r="H56">
         <v>1508088881609</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>265</v>
       </c>
@@ -49405,8 +50400,20 @@
       <c r="H57">
         <v>1508088924746</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -49431,8 +50438,20 @@
       <c r="H58">
         <v>1508088896142</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -49457,8 +50476,20 @@
       <c r="H59">
         <v>1508088923296</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -49483,8 +50514,20 @@
       <c r="H60">
         <v>1508088943568</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -49509,8 +50552,20 @@
       <c r="H61">
         <v>1508088993031</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>263</v>
       </c>
@@ -49535,8 +50590,20 @@
       <c r="H62">
         <v>1508088952015</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>270</v>
       </c>
@@ -49561,8 +50628,20 @@
       <c r="H63">
         <v>1508088981049</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>252</v>
       </c>
@@ -49587,8 +50666,20 @@
       <c r="H64">
         <v>1508088992894</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>265</v>
       </c>
@@ -49613,8 +50704,20 @@
       <c r="H65">
         <v>1508089029956</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>221</v>
       </c>
@@ -49639,8 +50742,20 @@
       <c r="H66">
         <v>1508089000527</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -49665,8 +50780,20 @@
       <c r="H67">
         <v>1508088992365</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="3">IF(D67&gt;E67,E67,D67)</f>
+        <v>200</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="4">IF(D67&gt;E67,D67,E67)</f>
+        <v>2000</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="5">IF(I67=200,IF(J67=400,1,3),2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -49691,8 +50818,20 @@
       <c r="H68">
         <v>1508089045036</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>177</v>
       </c>
@@ -49717,8 +50856,20 @@
       <c r="H69">
         <v>1508089048803</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>263</v>
       </c>
@@ -49743,8 +50894,20 @@
       <c r="H70">
         <v>1508089038557</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>265</v>
       </c>
@@ -49769,8 +50932,20 @@
       <c r="H71">
         <v>1508089091900</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>252</v>
       </c>
@@ -49795,8 +50970,20 @@
       <c r="H72">
         <v>1508089068392</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -49821,8 +51008,20 @@
       <c r="H73">
         <v>1508089073732</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>263</v>
       </c>
@@ -49847,8 +51046,20 @@
       <c r="H74">
         <v>1508089070965</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>270</v>
       </c>
@@ -49873,8 +51084,20 @@
       <c r="H75">
         <v>1508089135604</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -49899,8 +51122,20 @@
       <c r="H76">
         <v>1508089121997</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -49925,8 +51160,20 @@
       <c r="H77">
         <v>1508089155595</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -49951,8 +51198,20 @@
       <c r="H78">
         <v>1508089158105</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>252</v>
       </c>
@@ -49977,8 +51236,20 @@
       <c r="H79">
         <v>1508089160275</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>265</v>
       </c>
@@ -50003,8 +51274,20 @@
       <c r="H80">
         <v>1508089197432</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>263</v>
       </c>
@@ -50029,8 +51312,20 @@
       <c r="H81">
         <v>1508089171717</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -50055,8 +51350,20 @@
       <c r="H82">
         <v>1508089194678</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>252</v>
       </c>
@@ -50081,8 +51388,20 @@
       <c r="H83">
         <v>1508089226097</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -50107,8 +51426,20 @@
       <c r="H84">
         <v>1508089232487</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>263</v>
       </c>
@@ -50133,8 +51464,20 @@
       <c r="H85">
         <v>1508089216945</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -50159,8 +51502,20 @@
       <c r="H86">
         <v>1508089270326</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>252</v>
       </c>
@@ -50185,8 +51540,20 @@
       <c r="H87">
         <v>1508089285941</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -50211,8 +51578,20 @@
       <c r="H88">
         <v>1508089289038</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -50237,8 +51616,20 @@
       <c r="H89">
         <v>1508089321305</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -50263,8 +51654,20 @@
       <c r="H90">
         <v>1508089359112</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -50289,8 +51692,20 @@
       <c r="H91">
         <v>1508089338599</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -50315,8 +51730,20 @@
       <c r="H92">
         <v>1508089346408</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>287</v>
       </c>
@@ -50341,8 +51768,20 @@
       <c r="H93">
         <v>1508089381129</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>270</v>
       </c>
@@ -50367,8 +51806,20 @@
       <c r="H94">
         <v>1508089389841</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>324</v>
       </c>
@@ -50393,8 +51844,20 @@
       <c r="H95">
         <v>1508089392885</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>265</v>
       </c>
@@ -50419,8 +51882,20 @@
       <c r="H96">
         <v>1508089438896</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -50445,8 +51920,20 @@
       <c r="H97">
         <v>1508089413237</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>252</v>
       </c>
@@ -50471,8 +51958,20 @@
       <c r="H98">
         <v>1508089412130</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>324</v>
       </c>
@@ -50497,8 +51996,20 @@
       <c r="H99">
         <v>1508089423855</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>287</v>
       </c>
@@ -50523,8 +52034,20 @@
       <c r="H100">
         <v>1508089467592</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>324</v>
       </c>
@@ -50549,8 +52072,20 @@
       <c r="H101">
         <v>1508089469207</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>252</v>
       </c>
@@ -50575,8 +52110,20 @@
       <c r="H102">
         <v>1508089468118</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>270</v>
       </c>
@@ -50601,8 +52148,20 @@
       <c r="H103">
         <v>1508089476710</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>324</v>
       </c>
@@ -50627,8 +52186,20 @@
       <c r="H104">
         <v>1508089518118</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -50653,8 +52224,20 @@
       <c r="H105">
         <v>1508089534537</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>287</v>
       </c>
@@ -50679,8 +52262,20 @@
       <c r="H106">
         <v>1508089539743</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>324</v>
       </c>
@@ -50705,8 +52300,20 @@
       <c r="H107">
         <v>1508089554043</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>270</v>
       </c>
@@ -50731,8 +52338,20 @@
       <c r="H108">
         <v>1508089566263</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>324</v>
       </c>
@@ -50757,8 +52376,20 @@
       <c r="H109">
         <v>1508089584731</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -50783,8 +52414,20 @@
       <c r="H110">
         <v>1508089610980</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>363</v>
       </c>
@@ -50809,8 +52452,20 @@
       <c r="H111">
         <v>1508089640505</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>324</v>
       </c>
@@ -50835,8 +52490,20 @@
       <c r="H112">
         <v>1508089653978</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>270</v>
       </c>
@@ -50861,8 +52528,20 @@
       <c r="H113">
         <v>1508089653634</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>287</v>
       </c>
@@ -50887,8 +52566,20 @@
       <c r="H114">
         <v>1508089687607</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>363</v>
       </c>
@@ -50913,8 +52604,20 @@
       <c r="H115">
         <v>1508089702970</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>363</v>
       </c>
@@ -50939,8 +52642,20 @@
       <c r="H116">
         <v>1508089762574</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>287</v>
       </c>
@@ -50965,8 +52680,20 @@
       <c r="H117">
         <v>1508089784318</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>363</v>
       </c>
@@ -50991,8 +52718,20 @@
       <c r="H118">
         <v>1508089815968</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>287</v>
       </c>
@@ -51017,8 +52756,20 @@
       <c r="H119">
         <v>1508089843845</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>363</v>
       </c>
@@ -51043,8 +52794,20 @@
       <c r="H120">
         <v>1508089866972</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -51069,8 +52832,20 @@
       <c r="H121">
         <v>1508089915754</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>287</v>
       </c>
@@ -51095,8 +52870,20 @@
       <c r="H122">
         <v>1508089921206</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>365</v>
       </c>
@@ -51121,8 +52908,20 @@
       <c r="H123">
         <v>1508089942022</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>418</v>
       </c>
@@ -51147,8 +52946,20 @@
       <c r="H124">
         <v>1508089962101</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>363</v>
       </c>
@@ -51173,8 +52984,20 @@
       <c r="H125">
         <v>1508089968574</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>287</v>
       </c>
@@ -51199,8 +53022,20 @@
       <c r="H126">
         <v>1508089997238</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>363</v>
       </c>
@@ -51225,8 +53060,20 @@
       <c r="H127">
         <v>1508090023356</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>365</v>
       </c>
@@ -51251,8 +53098,20 @@
       <c r="H128">
         <v>1508090034395</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>418</v>
       </c>
@@ -51277,8 +53136,20 @@
       <c r="H129">
         <v>1508090038609</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>363</v>
       </c>
@@ -51303,8 +53174,20 @@
       <c r="H130">
         <v>1508090055570</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>287</v>
       </c>
@@ -51329,8 +53212,20 @@
       <c r="H131">
         <v>1508090093918</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="shared" ref="I131:I181" si="6">IF(D131&gt;E131,E131,D131)</f>
+        <v>200</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J181" si="7">IF(D131&gt;E131,D131,E131)</f>
+        <v>400</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K181" si="8">IF(I131=200,IF(J131=400,1,3),2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>365</v>
       </c>
@@ -51355,8 +53250,20 @@
       <c r="H132">
         <v>1508090097460</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>424</v>
       </c>
@@ -51381,8 +53288,20 @@
       <c r="H133">
         <v>1508090098135</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>418</v>
       </c>
@@ -51407,8 +53326,20 @@
       <c r="H134">
         <v>1508090110050</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>437</v>
       </c>
@@ -51433,8 +53364,20 @@
       <c r="H135">
         <v>1508090166302</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>424</v>
       </c>
@@ -51459,8 +53402,20 @@
       <c r="H136">
         <v>1508090169165</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -51485,8 +53440,20 @@
       <c r="H137">
         <v>1508090212029</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>365</v>
       </c>
@@ -51511,8 +53478,20 @@
       <c r="H138">
         <v>1508090220412</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -51537,8 +53516,20 @@
       <c r="H139">
         <v>1508090243517</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>437</v>
       </c>
@@ -51563,8 +53554,20 @@
       <c r="H140">
         <v>1508090252072</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -51589,8 +53592,20 @@
       <c r="H141">
         <v>1508090264036</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>365</v>
       </c>
@@ -51615,8 +53630,20 @@
       <c r="H142">
         <v>1508090296716</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -51641,8 +53668,20 @@
       <c r="H143">
         <v>1508090301039</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>437</v>
       </c>
@@ -51667,8 +53706,20 @@
       <c r="H144">
         <v>1508090308631</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>424</v>
       </c>
@@ -51693,8 +53744,20 @@
       <c r="H145">
         <v>1508090317731</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -51719,8 +53782,20 @@
       <c r="H146">
         <v>1508090339476</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>418</v>
       </c>
@@ -51745,8 +53820,20 @@
       <c r="H147">
         <v>1508090348436</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -51771,8 +53858,20 @@
       <c r="H148">
         <v>1508090354276</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>418</v>
       </c>
@@ -51797,8 +53896,20 @@
       <c r="H149">
         <v>1508090384616</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>437</v>
       </c>
@@ -51823,8 +53934,20 @@
       <c r="H150">
         <v>1508090400740</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>365</v>
       </c>
@@ -51849,8 +53972,20 @@
       <c r="H151">
         <v>1508090423356</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -51875,8 +54010,20 @@
       <c r="H152">
         <v>1508090438910</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>365</v>
       </c>
@@ -51901,8 +54048,20 @@
       <c r="H153">
         <v>1508090463212</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>437</v>
       </c>
@@ -51927,8 +54086,20 @@
       <c r="H154">
         <v>1508090476446</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>418</v>
       </c>
@@ -51953,8 +54124,20 @@
       <c r="H155">
         <v>1508090479038</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>365</v>
       </c>
@@ -51979,8 +54162,20 @@
       <c r="H156">
         <v>1508090503539</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>424</v>
       </c>
@@ -52005,8 +54200,20 @@
       <c r="H157">
         <v>1508090517923</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>437</v>
       </c>
@@ -52031,8 +54238,20 @@
       <c r="H158">
         <v>1508090523214</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>418</v>
       </c>
@@ -52057,8 +54276,20 @@
       <c r="H159">
         <v>1508090531160</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>424</v>
       </c>
@@ -52083,8 +54314,20 @@
       <c r="H160">
         <v>1508090579001</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>424</v>
       </c>
@@ -52109,8 +54352,20 @@
       <c r="H161">
         <v>1508090629395</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>424</v>
       </c>
@@ -52135,8 +54390,20 @@
       <c r="H162">
         <v>1508090686869</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>424</v>
       </c>
@@ -52161,8 +54428,20 @@
       <c r="H163">
         <v>1508090748681</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>506</v>
       </c>
@@ -52187,8 +54466,20 @@
       <c r="H164">
         <v>1508091405649</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>506</v>
       </c>
@@ -52213,8 +54504,20 @@
       <c r="H165">
         <v>1508091482544</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>506</v>
       </c>
@@ -52239,8 +54542,20 @@
       <c r="H166">
         <v>1508091581893</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>506</v>
       </c>
@@ -52265,8 +54580,20 @@
       <c r="H167">
         <v>1508091684837</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>506</v>
       </c>
@@ -52291,8 +54618,20 @@
       <c r="H168">
         <v>1508091818515</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>506</v>
       </c>
@@ -52317,8 +54656,20 @@
       <c r="H169">
         <v>1508091885972</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>506</v>
       </c>
@@ -52343,8 +54694,20 @@
       <c r="H170">
         <v>1508091942684</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>506</v>
       </c>
@@ -52369,8 +54732,20 @@
       <c r="H171">
         <v>1508092007787</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>506</v>
       </c>
@@ -52395,8 +54770,20 @@
       <c r="H172">
         <v>1508092072990</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>545</v>
       </c>
@@ -52421,8 +54808,20 @@
       <c r="H173">
         <v>1508089963764</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>545</v>
       </c>
@@ -52447,8 +54846,20 @@
       <c r="H174">
         <v>1508090056941</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>545</v>
       </c>
@@ -52473,8 +54884,20 @@
       <c r="H175">
         <v>1508090213951</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>545</v>
       </c>
@@ -52499,8 +54922,20 @@
       <c r="H176">
         <v>1508090346159</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>545</v>
       </c>
@@ -52525,8 +54960,20 @@
       <c r="H177">
         <v>1508090476971</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>545</v>
       </c>
@@ -52551,8 +54998,20 @@
       <c r="H178">
         <v>1508090552405</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>545</v>
       </c>
@@ -52577,8 +55036,20 @@
       <c r="H179">
         <v>1508090636945</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>545</v>
       </c>
@@ -52603,8 +55074,20 @@
       <c r="H180">
         <v>1508090778693</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>545</v>
       </c>
@@ -52628,6 +55111,18 @@
       </c>
       <c r="H181">
         <v>1508090863016</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
